--- a/backend/data/results/ncaam_season_results.xlsx
+++ b/backend/data/results/ncaam_season_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2070"/>
+  <dimension ref="A1:G2281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56333,6 +56333,5703 @@
         <v>14.5</v>
       </c>
     </row>
+    <row r="2071">
+      <c r="A2071" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>Florida Int'l Golden Panthers</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>New Mexico St Aggies</t>
+        </is>
+      </c>
+      <c r="D2071" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2071" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>Saint Mary's Gaels</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>Portland Pilots</t>
+        </is>
+      </c>
+      <c r="D2072" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="E2072" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>Santa Clara Broncos</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>Pepperdine Waves</t>
+        </is>
+      </c>
+      <c r="D2073" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="E2073" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>Pacific Tigers</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>Oregon St Beavers</t>
+        </is>
+      </c>
+      <c r="D2074" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2074" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>53</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>Washington St Cougars</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>Loyola Marymount Lions</t>
+        </is>
+      </c>
+      <c r="D2075" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2075" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>Iowa State Cyclones</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>West Virginia Mountaineers</t>
+        </is>
+      </c>
+      <c r="D2076" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E2076" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>Gonzaga Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>Seattle Redhawks</t>
+        </is>
+      </c>
+      <c r="D2077" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="E2077" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>Nebraska Cornhuskers</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>Michigan St Spartans</t>
+        </is>
+      </c>
+      <c r="D2078" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2078" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>56</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>Stanford Cardinal</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>Louisville Cardinals</t>
+        </is>
+      </c>
+      <c r="D2079" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2079" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>Rutgers Scarlet Knights</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>Ohio State Buckeyes</t>
+        </is>
+      </c>
+      <c r="D2080" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E2080" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>Missouri St Bears</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>UTEP Miners</t>
+        </is>
+      </c>
+      <c r="D2081" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2081" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>Middle Tennessee Blue Raiders</t>
+        </is>
+      </c>
+      <c r="C2082" t="inlineStr">
+        <is>
+          <t>Louisiana Tech Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2082" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2082" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>51</v>
+      </c>
+      <c r="G2082" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>Maryland Terrapins</t>
+        </is>
+      </c>
+      <c r="C2083" t="inlineStr">
+        <is>
+          <t>Oregon Ducks</t>
+        </is>
+      </c>
+      <c r="D2083" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2083" t="n">
+        <v>54</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2083" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>Mercyhurst Lakers</t>
+        </is>
+      </c>
+      <c r="C2084" t="inlineStr">
+        <is>
+          <t>Fairleigh Dickinson Knights</t>
+        </is>
+      </c>
+      <c r="D2084" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2084" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2084" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>Michigan Wolverines</t>
+        </is>
+      </c>
+      <c r="C2085" t="inlineStr">
+        <is>
+          <t>USC Trojans</t>
+        </is>
+      </c>
+      <c r="D2085" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="E2085" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2085" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>McNeese Cowboys</t>
+        </is>
+      </c>
+      <c r="C2086" t="inlineStr">
+        <is>
+          <t>Lamar Cardinals</t>
+        </is>
+      </c>
+      <c r="D2086" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E2086" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2086" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>Liberty Flames</t>
+        </is>
+      </c>
+      <c r="C2087" t="inlineStr">
+        <is>
+          <t>Kennesaw St Owls</t>
+        </is>
+      </c>
+      <c r="D2087" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2087" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2087" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>Detroit Mercy Titans</t>
+        </is>
+      </c>
+      <c r="C2088" t="inlineStr">
+        <is>
+          <t>Robert Morris Colonials</t>
+        </is>
+      </c>
+      <c r="D2088" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2088" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2088" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>Delaware Blue Hens</t>
+        </is>
+      </c>
+      <c r="C2089" t="inlineStr">
+        <is>
+          <t>Jacksonville St Gamecocks</t>
+        </is>
+      </c>
+      <c r="D2089" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2089" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2089" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>Stonehill Skyhawks</t>
+        </is>
+      </c>
+      <c r="C2090" t="inlineStr">
+        <is>
+          <t>New Haven Chargers</t>
+        </is>
+      </c>
+      <c r="D2090" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2090" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2090" t="n">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>Saint Peter's Peacocks</t>
+        </is>
+      </c>
+      <c r="C2091" t="inlineStr">
+        <is>
+          <t>Marist Red Foxes</t>
+        </is>
+      </c>
+      <c r="D2091" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2091" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2091" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>Manhattan Jaspers</t>
+        </is>
+      </c>
+      <c r="C2092" t="inlineStr">
+        <is>
+          <t>Quinnipiac Bobcats</t>
+        </is>
+      </c>
+      <c r="D2092" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2092" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2092" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>St. Francis (PA) Red Flash</t>
+        </is>
+      </c>
+      <c r="C2093" t="inlineStr">
+        <is>
+          <t>Le Moyne Dolphins</t>
+        </is>
+      </c>
+      <c r="D2093" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2093" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2093" t="n">
+        <v>-20.5</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>Iona Gaels</t>
+        </is>
+      </c>
+      <c r="C2094" t="inlineStr">
+        <is>
+          <t>Siena Saints</t>
+        </is>
+      </c>
+      <c r="D2094" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2094" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2094" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>Chicago St Cougars</t>
+        </is>
+      </c>
+      <c r="C2095" t="inlineStr">
+        <is>
+          <t>Wagner Seahawks</t>
+        </is>
+      </c>
+      <c r="D2095" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2095" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2095" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>LIU Sharks</t>
+        </is>
+      </c>
+      <c r="C2096" t="inlineStr">
+        <is>
+          <t>Central Connecticut St Blue Devils</t>
+        </is>
+      </c>
+      <c r="D2096" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2096" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2096" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>Western Kentucky Hilltoppers</t>
+        </is>
+      </c>
+      <c r="C2097" t="inlineStr">
+        <is>
+          <t>Sam Houston St Bearkats</t>
+        </is>
+      </c>
+      <c r="D2097" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2097" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2097" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>Niagara Purple Eagles</t>
+        </is>
+      </c>
+      <c r="C2098" t="inlineStr">
+        <is>
+          <t>Sacred Heart Pioneers</t>
+        </is>
+      </c>
+      <c r="D2098" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2098" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2098" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>Canisius Golden Griffins</t>
+        </is>
+      </c>
+      <c r="C2099" t="inlineStr">
+        <is>
+          <t>Fairfield Stags</t>
+        </is>
+      </c>
+      <c r="D2099" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E2099" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2099" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>Merrimack Warriors</t>
+        </is>
+      </c>
+      <c r="C2100" t="inlineStr">
+        <is>
+          <t>Mt. St. Mary's Mountaineers</t>
+        </is>
+      </c>
+      <c r="D2100" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2100" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2100" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>San Francisco Dons</t>
+        </is>
+      </c>
+      <c r="C2101" t="inlineStr">
+        <is>
+          <t>San Diego Toreros</t>
+        </is>
+      </c>
+      <c r="D2101" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2101" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2101" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>California Golden Bears</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>Notre Dame Fighting Irish</t>
+        </is>
+      </c>
+      <c r="D2102" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2102" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>NC State Wolfpack</t>
+        </is>
+      </c>
+      <c r="C2103" t="inlineStr">
+        <is>
+          <t>Virginia Cavaliers</t>
+        </is>
+      </c>
+      <c r="D2103" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2103" t="n">
+        <v>61</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2103" t="n">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>Incarnate Word Cardinals</t>
+        </is>
+      </c>
+      <c r="C2104" t="inlineStr">
+        <is>
+          <t>Houston Christian Huskies</t>
+        </is>
+      </c>
+      <c r="D2104" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2104" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>56</v>
+      </c>
+      <c r="G2104" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>Austin Peay Governors</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>Jacksonville Dolphins</t>
+        </is>
+      </c>
+      <c r="D2105" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2105" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>Lipscomb Bisons</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>North Florida Ospreys</t>
+        </is>
+      </c>
+      <c r="D2106" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="E2106" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>Tarleton State Texans</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>Cal Baptist Lancers</t>
+        </is>
+      </c>
+      <c r="D2107" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2107" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>Loyola (MD) Greyhounds</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>Lafayette Leopards</t>
+        </is>
+      </c>
+      <c r="D2108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2108" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>Northwestern Wildcats</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>Minnesota Golden Gophers</t>
+        </is>
+      </c>
+      <c r="D2109" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2109" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>SE Missouri St Redhawks</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>Western Illinois Leathernecks</t>
+        </is>
+      </c>
+      <c r="D2110" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E2110" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>South Carolina St Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>Howard Bison</t>
+        </is>
+      </c>
+      <c r="D2111" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E2111" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>Nicholls St Colonels</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>East Texas A&amp;M Lions</t>
+        </is>
+      </c>
+      <c r="D2112" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2112" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>SIU-Edwardsville Cougars</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>Morehead St Eagles</t>
+        </is>
+      </c>
+      <c r="D2113" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2113" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>Tenn-Martin Skyhawks</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>Eastern Illinois Panthers</t>
+        </is>
+      </c>
+      <c r="D2114" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2114" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>Jackson St Tigers</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>Alcorn St Braves</t>
+        </is>
+      </c>
+      <c r="D2115" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2115" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>Bucknell Bison</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>Lehigh Mountain Hawks</t>
+        </is>
+      </c>
+      <c r="D2116" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2116" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>Lindenwood Lions</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>Southern Indiana Screaming Eagles</t>
+        </is>
+      </c>
+      <c r="D2117" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2117" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>SE Louisiana Lions</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>Stephen F. Austin Lumberjacks</t>
+        </is>
+      </c>
+      <c r="D2118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2118" t="n">
+        <v>63</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>North Carolina Central Eagles</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>Norfolk St Spartans</t>
+        </is>
+      </c>
+      <c r="D2119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2119" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>Northwestern St Demons</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>New Orleans Privateers</t>
+        </is>
+      </c>
+      <c r="D2120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2120" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>Maryland-Eastern Shore Hawks</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>Morgan St Bears</t>
+        </is>
+      </c>
+      <c r="D2121" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2121" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>North Dakota St Bison</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>Oral Roberts Golden Eagles</t>
+        </is>
+      </c>
+      <c r="D2122" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2122" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M Aggies</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>LSU Tigers</t>
+        </is>
+      </c>
+      <c r="D2123" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2123" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>George Mason Patriots</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>Rhode Island Rams</t>
+        </is>
+      </c>
+      <c r="D2124" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2124" t="n">
+        <v>61</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>Utah State Aggies</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>San José St Spartans</t>
+        </is>
+      </c>
+      <c r="D2125" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="E2125" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>Utah Utes</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>Arizona Wildcats</t>
+        </is>
+      </c>
+      <c r="D2126" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E2126" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>Marshall Thundering Herd</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>Appalachian St Mountaineers</t>
+        </is>
+      </c>
+      <c r="D2127" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2127" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>East Tennessee St Buccaneers</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>Mercer Bears</t>
+        </is>
+      </c>
+      <c r="D2128" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2128" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>Winthrop Eagles</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>Gardner-Webb Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2129" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="E2129" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>Troy Trojans</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>South Alabama Jaguars</t>
+        </is>
+      </c>
+      <c r="D2130" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2130" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>Furman Paladins</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>Western Carolina Catamounts</t>
+        </is>
+      </c>
+      <c r="D2131" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2131" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>Idaho Vandals</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>Eastern Washington Eagles</t>
+        </is>
+      </c>
+      <c r="D2132" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2132" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>UC Davis Aggies</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>CSU Bakersfield Roadrunners</t>
+        </is>
+      </c>
+      <c r="D2133" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2133" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>Weber State Wildcats</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>Sacramento St Hornets</t>
+        </is>
+      </c>
+      <c r="D2134" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2134" t="n">
+        <v>95</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>Long Beach St 49ers</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>Cal Poly Mustangs</t>
+        </is>
+      </c>
+      <c r="D2135" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2135" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>Southern Utah Thunderbirds</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>UT-Arlington Mavericks</t>
+        </is>
+      </c>
+      <c r="D2136" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2136" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>Missouri Tigers</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>Florida Gators</t>
+        </is>
+      </c>
+      <c r="D2137" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2137" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>New Mexico Lobos</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>Wyoming Cowboys</t>
+        </is>
+      </c>
+      <c r="D2138" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2138" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>Wisconsin Badgers</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>Purdue Boilermakers</t>
+        </is>
+      </c>
+      <c r="D2139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2139" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>Omaha Mavericks</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>UMKC Kangaroos</t>
+        </is>
+      </c>
+      <c r="D2140" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2140" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>Montana St Bobcats</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>Northern Arizona Lumberjacks</t>
+        </is>
+      </c>
+      <c r="D2141" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2141" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>Grand Canyon Antelopes</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>Colorado St Rams</t>
+        </is>
+      </c>
+      <c r="D2142" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2142" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>Penn State Nittany Lions</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>Illinois Fighting Illini</t>
+        </is>
+      </c>
+      <c r="D2143" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>UNC Wilmington Seahawks</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>Hampton Pirates</t>
+        </is>
+      </c>
+      <c r="D2144" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>49</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>45</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>Fresno St Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>Nevada Wolf Pack</t>
+        </is>
+      </c>
+      <c r="D2145" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>UNLV Rebels</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>Air Force Falcons</t>
+        </is>
+      </c>
+      <c r="D2146" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>39</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>CSU Fullerton Titans</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>UC Irvine Anteaters</t>
+        </is>
+      </c>
+      <c r="D2147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>Arkansas-Pine Bluff Golden Lions</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>Alabama A&amp;M Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>95</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>Southern Jaguars</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>Texas Southern Tigers</t>
+        </is>
+      </c>
+      <c r="D2149" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>Charlotte 49ers</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>Wichita St Shockers</t>
+        </is>
+      </c>
+      <c r="D2150" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>Saint Joseph's Hawks</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>Davidson Wildcats</t>
+        </is>
+      </c>
+      <c r="D2151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>Idaho State Bengals</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>Portland St Vikings</t>
+        </is>
+      </c>
+      <c r="D2152" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>Montana Grizzlies</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>N Colorado Bears</t>
+        </is>
+      </c>
+      <c r="D2153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>Towson Tigers</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>Monmouth Hawks</t>
+        </is>
+      </c>
+      <c r="D2154" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>48</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>-22.5</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>Texas Longhorns</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>Mississippi St Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2155" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>Iowa Hawkeyes</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>UCLA Bruins</t>
+        </is>
+      </c>
+      <c r="D2156" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>UT Rio Grande Valley Vaqueros</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M-CC Islanders</t>
+        </is>
+      </c>
+      <c r="D2157" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>Grambling St Tigers</t>
+        </is>
+      </c>
+      <c r="C2158" t="inlineStr">
+        <is>
+          <t>Prairie View Panthers</t>
+        </is>
+      </c>
+      <c r="D2158" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2158" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>Arizona St Sun Devils</t>
+        </is>
+      </c>
+      <c r="C2159" t="inlineStr">
+        <is>
+          <t>Colorado Buffaloes</t>
+        </is>
+      </c>
+      <c r="D2159" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>95</v>
+      </c>
+      <c r="G2159" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>Miss Valley St Delta Devils</t>
+        </is>
+      </c>
+      <c r="C2160" t="inlineStr">
+        <is>
+          <t>Alabama St Hornets</t>
+        </is>
+      </c>
+      <c r="D2160" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2160" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>Abilene Christian Wildcats</t>
+        </is>
+      </c>
+      <c r="C2161" t="inlineStr">
+        <is>
+          <t>Utah Valley Wolverines</t>
+        </is>
+      </c>
+      <c r="D2161" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2161" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>UNC Greensboro Spartans</t>
+        </is>
+      </c>
+      <c r="C2162" t="inlineStr">
+        <is>
+          <t>Samford Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2162" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>Stony Brook Seawolves</t>
+        </is>
+      </c>
+      <c r="C2163" t="inlineStr">
+        <is>
+          <t>North Carolina A&amp;T Aggies</t>
+        </is>
+      </c>
+      <c r="D2163" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2163" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>Binghamton Bearcats</t>
+        </is>
+      </c>
+      <c r="C2164" t="inlineStr">
+        <is>
+          <t>NJIT Highlanders</t>
+        </is>
+      </c>
+      <c r="D2164" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2164" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>Presbyterian Blue Hose</t>
+        </is>
+      </c>
+      <c r="C2165" t="inlineStr">
+        <is>
+          <t>South Carolina Upstate Spartans</t>
+        </is>
+      </c>
+      <c r="D2165" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2165" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>Eastern Michigan Eagles</t>
+        </is>
+      </c>
+      <c r="C2166" t="inlineStr">
+        <is>
+          <t>Ohio Bobcats</t>
+        </is>
+      </c>
+      <c r="D2166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2166" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>Holy Cross Crusaders</t>
+        </is>
+      </c>
+      <c r="C2167" t="inlineStr">
+        <is>
+          <t>Navy Midshipmen</t>
+        </is>
+      </c>
+      <c r="D2167" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2167" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>DePaul Blue Demons</t>
+        </is>
+      </c>
+      <c r="C2168" t="inlineStr">
+        <is>
+          <t>Xavier Musketeers</t>
+        </is>
+      </c>
+      <c r="D2168" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2168" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>West Georgia Wolves</t>
+        </is>
+      </c>
+      <c r="C2169" t="inlineStr">
+        <is>
+          <t>Eastern Kentucky Colonels</t>
+        </is>
+      </c>
+      <c r="D2169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2169" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>TCU Horned Frogs</t>
+        </is>
+      </c>
+      <c r="C2170" t="inlineStr">
+        <is>
+          <t>Baylor Bears</t>
+        </is>
+      </c>
+      <c r="D2170" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2170" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>Kansas St Wildcats</t>
+        </is>
+      </c>
+      <c r="C2171" t="inlineStr">
+        <is>
+          <t>BYU Cougars</t>
+        </is>
+      </c>
+      <c r="D2171" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2171" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>Texas Tech Red Raiders</t>
+        </is>
+      </c>
+      <c r="C2172" t="inlineStr">
+        <is>
+          <t>Oklahoma St Cowboys</t>
+        </is>
+      </c>
+      <c r="D2172" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2172" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>New Hampshire Wildcats</t>
+        </is>
+      </c>
+      <c r="C2173" t="inlineStr">
+        <is>
+          <t>Vermont Catamounts</t>
+        </is>
+      </c>
+      <c r="D2173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>61</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2173" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>VMI Keydets</t>
+        </is>
+      </c>
+      <c r="C2174" t="inlineStr">
+        <is>
+          <t>Chattanooga Mocs</t>
+        </is>
+      </c>
+      <c r="D2174" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2174" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>Boston Univ. Terriers</t>
+        </is>
+      </c>
+      <c r="C2175" t="inlineStr">
+        <is>
+          <t>American Eagles</t>
+        </is>
+      </c>
+      <c r="D2175" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>62</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2175" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>Massachusetts Minutemen</t>
+        </is>
+      </c>
+      <c r="C2176" t="inlineStr">
+        <is>
+          <t>Bowling Green Falcons</t>
+        </is>
+      </c>
+      <c r="D2176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2176" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>Louisiana Ragin' Cajuns</t>
+        </is>
+      </c>
+      <c r="C2177" t="inlineStr">
+        <is>
+          <t>Southern Miss Golden Eagles</t>
+        </is>
+      </c>
+      <c r="D2177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2177" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>Coastal Carolina Chanticleers</t>
+        </is>
+      </c>
+      <c r="C2178" t="inlineStr">
+        <is>
+          <t>Georgia St Panthers</t>
+        </is>
+      </c>
+      <c r="D2178" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2178" t="n">
+        <v>-24.5</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>The Citadel Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2179" t="inlineStr">
+        <is>
+          <t>Wofford Terriers</t>
+        </is>
+      </c>
+      <c r="D2179" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>95</v>
+      </c>
+      <c r="G2179" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>Kent State Golden Flashes</t>
+        </is>
+      </c>
+      <c r="C2180" t="inlineStr">
+        <is>
+          <t>Northern Illinois Huskies</t>
+        </is>
+      </c>
+      <c r="D2180" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2180" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>Georgia Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2181" t="inlineStr">
+        <is>
+          <t>Auburn Tigers</t>
+        </is>
+      </c>
+      <c r="D2181" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2181" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>St. John's Red Storm</t>
+        </is>
+      </c>
+      <c r="C2182" t="inlineStr">
+        <is>
+          <t>Providence Friars</t>
+        </is>
+      </c>
+      <c r="D2182" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2182" t="n">
+        <v>-20.5</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>Butler Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2183" t="inlineStr">
+        <is>
+          <t>Villanova Wildcats</t>
+        </is>
+      </c>
+      <c r="D2183" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2183" t="n">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>Pittsburgh Panthers</t>
+        </is>
+      </c>
+      <c r="C2184" t="inlineStr">
+        <is>
+          <t>Clemson Tigers</t>
+        </is>
+      </c>
+      <c r="D2184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2184" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>Wake Forest Demon Deacons</t>
+        </is>
+      </c>
+      <c r="C2185" t="inlineStr">
+        <is>
+          <t>Virginia Tech Hokies</t>
+        </is>
+      </c>
+      <c r="D2185" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2185" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>Temple Owls</t>
+        </is>
+      </c>
+      <c r="C2186" t="inlineStr">
+        <is>
+          <t>UTSA Roadrunners</t>
+        </is>
+      </c>
+      <c r="D2186" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2186" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>Duquesne Dukes</t>
+        </is>
+      </c>
+      <c r="C2187" t="inlineStr">
+        <is>
+          <t>VCU Rams</t>
+        </is>
+      </c>
+      <c r="D2187" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2187" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>Campbell Fighting Camels</t>
+        </is>
+      </c>
+      <c r="C2188" t="inlineStr">
+        <is>
+          <t>Northeastern Huskies</t>
+        </is>
+      </c>
+      <c r="D2188" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2188" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>Alabama Crimson Tide</t>
+        </is>
+      </c>
+      <c r="C2189" t="inlineStr">
+        <is>
+          <t>Kentucky Wildcats</t>
+        </is>
+      </c>
+      <c r="D2189" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2189" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>Army Knights</t>
+        </is>
+      </c>
+      <c r="C2190" t="inlineStr">
+        <is>
+          <t>Colgate Raiders</t>
+        </is>
+      </c>
+      <c r="D2190" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2190" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>Charleston Southern Buccaneers</t>
+        </is>
+      </c>
+      <c r="C2191" t="inlineStr">
+        <is>
+          <t>UNC Asheville Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2191" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2191" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>Central Arkansas Bears</t>
+        </is>
+      </c>
+      <c r="C2192" t="inlineStr">
+        <is>
+          <t>Stetson Hatters</t>
+        </is>
+      </c>
+      <c r="D2192" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2192" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>UCF Knights</t>
+        </is>
+      </c>
+      <c r="C2193" t="inlineStr">
+        <is>
+          <t>Kansas Jayhawks</t>
+        </is>
+      </c>
+      <c r="D2193" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2193" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>CSU Northridge Matadors</t>
+        </is>
+      </c>
+      <c r="C2194" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara Gauchos</t>
+        </is>
+      </c>
+      <c r="D2194" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2194" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>Delaware St Hornets</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>Coppin St Eagles</t>
+        </is>
+      </c>
+      <c r="D2195" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>51</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>53</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>Arkansas-Little Rock Trojans</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>Tennessee St Tigers</t>
+        </is>
+      </c>
+      <c r="D2196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>Florida St Seminoles</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>Duke Blue Devils</t>
+        </is>
+      </c>
+      <c r="D2197" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>Old Dominion Monarchs</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>Georgia Southern Eagles</t>
+        </is>
+      </c>
+      <c r="D2198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>UL Monroe Warhawks</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>Texas State Bobcats</t>
+        </is>
+      </c>
+      <c r="D2199" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>Oklahoma Sooners</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>Ole Miss Rebels</t>
+        </is>
+      </c>
+      <c r="D2200" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>Bethune-Cookman Wildcats</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>Florida A&amp;M Rattlers</t>
+        </is>
+      </c>
+      <c r="D2201" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>Miami (OH) RedHawks</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>Akron Zips</t>
+        </is>
+      </c>
+      <c r="D2202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>Rice Owls</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>Memphis Tigers</t>
+        </is>
+      </c>
+      <c r="D2203" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>Arkansas St Red Wolves</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>James Madison Dukes</t>
+        </is>
+      </c>
+      <c r="D2204" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>Arkansas Razorbacks</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>Tennessee Volunteers</t>
+        </is>
+      </c>
+      <c r="D2205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>North Alabama Lions</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>Florida Gulf Coast Eagles</t>
+        </is>
+      </c>
+      <c r="D2206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>Central Michigan Chippewas</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>Toledo Rockets</t>
+        </is>
+      </c>
+      <c r="D2207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>Queens University Royals</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>Bellarmine Knights</t>
+        </is>
+      </c>
+      <c r="D2208" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>SMU Mustangs</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>North Carolina Tar Heels</t>
+        </is>
+      </c>
+      <c r="D2209" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>Cincinnati Bearcats</t>
+        </is>
+      </c>
+      <c r="C2210" t="inlineStr">
+        <is>
+          <t>Houston Cougars</t>
+        </is>
+      </c>
+      <c r="D2210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2210" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>Loyola (Chi) Ramblers</t>
+        </is>
+      </c>
+      <c r="C2211" t="inlineStr">
+        <is>
+          <t>Dayton Flyers</t>
+        </is>
+      </c>
+      <c r="D2211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2211" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>Georgia Tech Yellow Jackets</t>
+        </is>
+      </c>
+      <c r="C2212" t="inlineStr">
+        <is>
+          <t>Boston College Eagles</t>
+        </is>
+      </c>
+      <c r="D2212" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>53</v>
+      </c>
+      <c r="G2212" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>GW Revolutionaries</t>
+        </is>
+      </c>
+      <c r="C2213" t="inlineStr">
+        <is>
+          <t>La Salle Explorers</t>
+        </is>
+      </c>
+      <c r="D2213" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2213" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>Drexel Dragons</t>
+        </is>
+      </c>
+      <c r="C2214" t="inlineStr">
+        <is>
+          <t>Hofstra Pride</t>
+        </is>
+      </c>
+      <c r="D2214" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2214" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>South Carolina Gamecocks</t>
+        </is>
+      </c>
+      <c r="C2215" t="inlineStr">
+        <is>
+          <t>Vanderbilt Commodores</t>
+        </is>
+      </c>
+      <c r="D2215" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2215" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>North Dakota Fighting Hawks</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>South Dakota St Jackrabbits</t>
+        </is>
+      </c>
+      <c r="D2216" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>Maine Black Bears</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>Bryant Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>51</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>56</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>UMass Lowell River Hawks</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>Albany Great Danes</t>
+        </is>
+      </c>
+      <c r="D2218" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>Buffalo Bulls</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>Ball State Cardinals</t>
+        </is>
+      </c>
+      <c r="D2219" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>High Point Panthers</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>Longwood Lancers</t>
+        </is>
+      </c>
+      <c r="D2220" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>UC San Diego Tritons</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>Hawai'i Rainbow Warriors</t>
+        </is>
+      </c>
+      <c r="D2221" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>San Diego St Aztecs</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>Boise State Broncos</t>
+        </is>
+      </c>
+      <c r="D2222" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>110</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>107</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>Merrimack Warriors</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>Manhattan Jaspers</t>
+        </is>
+      </c>
+      <c r="D2223" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>Western Kentucky Hilltoppers</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>Louisiana Tech Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2224" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>Missouri St Bears</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>New Mexico St Aggies</t>
+        </is>
+      </c>
+      <c r="D2225" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>Drake Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>Indiana St Sycamores</t>
+        </is>
+      </c>
+      <c r="D2226" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>Wagner Seahawks</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>Stonehill Skyhawks</t>
+        </is>
+      </c>
+      <c r="D2227" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>Florida Int'l Golden Panthers</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>UTEP Miners</t>
+        </is>
+      </c>
+      <c r="D2228" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>Evansville Purple Aces</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>Northern Iowa Panthers</t>
+        </is>
+      </c>
+      <c r="D2229" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>48</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>Northern Kentucky Norse</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>Youngstown St Penguins</t>
+        </is>
+      </c>
+      <c r="D2230" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>94</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>Oakland Golden Grizzlies</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>Robert Morris Colonials</t>
+        </is>
+      </c>
+      <c r="D2231" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>North Texas Mean Green</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>Tulsa Golden Hurricane</t>
+        </is>
+      </c>
+      <c r="D2232" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>Belmont Bruins</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>Southern Illinois Salukis</t>
+        </is>
+      </c>
+      <c r="D2233" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>Murray St Racers</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>Bradley Braves</t>
+        </is>
+      </c>
+      <c r="D2234" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>Santa Clara Broncos</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>San Diego Toreros</t>
+        </is>
+      </c>
+      <c r="D2235" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>Pacific Tigers</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>Pepperdine Waves</t>
+        </is>
+      </c>
+      <c r="D2236" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>San Francisco Dons</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>Portland Pilots</t>
+        </is>
+      </c>
+      <c r="D2237" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>Washington St Cougars</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>Oregon St Beavers</t>
+        </is>
+      </c>
+      <c r="D2238" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>Saint Mary's Gaels</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>Seattle Redhawks</t>
+        </is>
+      </c>
+      <c r="D2239" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>St. Francis (PA) Red Flash</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>Fairleigh Dickinson Knights</t>
+        </is>
+      </c>
+      <c r="D2240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>Valparaiso Beacons</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>UIC Flames</t>
+        </is>
+      </c>
+      <c r="D2241" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>Chicago St Cougars</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>LIU Sharks</t>
+        </is>
+      </c>
+      <c r="D2242" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>Mercyhurst Lakers</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>Le Moyne Dolphins</t>
+        </is>
+      </c>
+      <c r="D2243" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>Seton Hall Pirates</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>Creighton Bluejays</t>
+        </is>
+      </c>
+      <c r="D2244" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>54</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>Fordham Rams</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>Richmond Spiders</t>
+        </is>
+      </c>
+      <c r="D2245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2245" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>Canisius Golden Griffins</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>Sacred Heart Pioneers</t>
+        </is>
+      </c>
+      <c r="D2246" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>Tulane Green Wave</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>Florida Atlantic Owls</t>
+        </is>
+      </c>
+      <c r="D2247" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>Central Connecticut St Blue Devils</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>New Haven Chargers</t>
+        </is>
+      </c>
+      <c r="D2248" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2248" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>South Florida Bulls</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>UAB Blazers</t>
+        </is>
+      </c>
+      <c r="D2249" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2249" t="n">
+        <v>106</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>109</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>St. Thomas (MN) Tommies</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>Denver Pioneers</t>
+        </is>
+      </c>
+      <c r="D2250" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2250" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>Middle Tennessee Blue Raiders</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>Sam Houston St Bearkats</t>
+        </is>
+      </c>
+      <c r="D2251" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2251" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>Rider Broncs</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>Siena Saints</t>
+        </is>
+      </c>
+      <c r="D2252" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E2252" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>IUPUI Jaguars</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>Wright St Raiders</t>
+        </is>
+      </c>
+      <c r="D2253" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E2253" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>Delaware Blue Hens</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>Kennesaw St Owls</t>
+        </is>
+      </c>
+      <c r="D2254" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>52</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>UConn Huskies</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>Marquette Golden Eagles</t>
+        </is>
+      </c>
+      <c r="D2255" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="E2255" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>Quinnipiac Bobcats</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>Mt. St. Mary's Mountaineers</t>
+        </is>
+      </c>
+      <c r="D2256" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2256" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>Marist Red Foxes</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>Iona Gaels</t>
+        </is>
+      </c>
+      <c r="D2257" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2257" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>Liberty Flames</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>Jacksonville St Gamecocks</t>
+        </is>
+      </c>
+      <c r="D2258" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2258" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>Fort Wayne Mastodons</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>Cleveland St Vikings</t>
+        </is>
+      </c>
+      <c r="D2259" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2259" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>Niagara Purple Eagles</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>Fairfield Stags</t>
+        </is>
+      </c>
+      <c r="D2260" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2260" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>Indiana Hoosiers</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>Washington Huskies</t>
+        </is>
+      </c>
+      <c r="D2261" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2261" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" s="2" t="n">
+        <v>46026</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>Gonzaga Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>Loyola Marymount Lions</t>
+        </is>
+      </c>
+      <c r="D2262" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="E2262" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>47</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>Cornell Big Red</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>Columbia Lions</t>
+        </is>
+      </c>
+      <c r="D2263" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2263" t="n">
+        <v>99</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>New Orleans Privateers</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>East Texas A&amp;M Lions</t>
+        </is>
+      </c>
+      <c r="D2264" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2264" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>Miss Valley St Delta Devils</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>Alabama A&amp;M Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2265" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E2265" t="n">
+        <v>51</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>McNeese Cowboys</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>Stephen F. Austin Lumberjacks</t>
+        </is>
+      </c>
+      <c r="D2266" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2266" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>Grambling St Tigers</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>Texas Southern Tigers</t>
+        </is>
+      </c>
+      <c r="D2267" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2267" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>UT Rio Grande Valley Vaqueros</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>Incarnate Word Cardinals</t>
+        </is>
+      </c>
+      <c r="D2268" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2268" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>Nicholls St Colonels</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>Northwestern St Demons</t>
+        </is>
+      </c>
+      <c r="D2269" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2269" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>William &amp; Mary Tribe</t>
+        </is>
+      </c>
+      <c r="D2270" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2270" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>Houston Christian Huskies</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M-CC Islanders</t>
+        </is>
+      </c>
+      <c r="D2271" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2271" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>Princeton Tigers</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>Pennsylvania Quakers</t>
+        </is>
+      </c>
+      <c r="D2272" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2272" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2272" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>Southern Jaguars</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>Prairie View Panthers</t>
+        </is>
+      </c>
+      <c r="D2273" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2273" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2273" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>SE Louisiana Lions</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>Lamar Cardinals</t>
+        </is>
+      </c>
+      <c r="D2274" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2274" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>52</v>
+      </c>
+      <c r="G2274" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>Rutgers Scarlet Knights</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>Oregon Ducks</t>
+        </is>
+      </c>
+      <c r="D2275" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2275" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2275" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>Harvard Crimson</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>Dartmouth Big Green</t>
+        </is>
+      </c>
+      <c r="D2276" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2276" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2276" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>Brown Bears</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>Yale Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2277" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E2277" t="n">
+        <v>53</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2277" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>Arkansas-Pine Bluff Golden Lions</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>Alabama St Hornets</t>
+        </is>
+      </c>
+      <c r="D2278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2278" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2278" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>Ohio State Buckeyes</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>Nebraska Cornhuskers</t>
+        </is>
+      </c>
+      <c r="D2279" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2279" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2279" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>Green Bay Phoenix</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>Milwaukee Panthers</t>
+        </is>
+      </c>
+      <c r="D2280" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2280" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2280" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>Michigan St Spartans</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>USC Trojans</t>
+        </is>
+      </c>
+      <c r="D2281" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2281" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>51</v>
+      </c>
+      <c r="G2281" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/results/ncaam_season_results.xlsx
+++ b/backend/data/results/ncaam_season_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2281"/>
+  <dimension ref="A1:G2364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62030,6 +62030,2247 @@
         <v>17.5</v>
       </c>
     </row>
+    <row r="2282">
+      <c r="A2282" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>Ohio Bobcats</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>Massachusetts Minutemen</t>
+        </is>
+      </c>
+      <c r="D2282" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2282" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>San José St Spartans</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>Fresno St Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2283" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2283" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>Houston Cougars</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>Texas Tech Red Raiders</t>
+        </is>
+      </c>
+      <c r="D2284" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2284" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>Kansas Jayhawks</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>TCU Horned Frogs</t>
+        </is>
+      </c>
+      <c r="D2285" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2285" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>Tennessee Volunteers</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>Texas Longhorns</t>
+        </is>
+      </c>
+      <c r="D2286" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2286" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>Auburn Tigers</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M Aggies</t>
+        </is>
+      </c>
+      <c r="D2287" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2287" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>Boston College Eagles</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>NC State Wolfpack</t>
+        </is>
+      </c>
+      <c r="D2288" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E2288" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>Colorado St Rams</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>New Mexico Lobos</t>
+        </is>
+      </c>
+      <c r="D2289" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>Air Force Falcons</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>Utah State Aggies</t>
+        </is>
+      </c>
+      <c r="D2290" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E2290" t="n">
+        <v>62</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>99</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>Wisconsin Badgers</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>UCLA Bruins</t>
+        </is>
+      </c>
+      <c r="D2291" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2291" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>SIU-Edwardsville Cougars</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>Lindenwood Lions</t>
+        </is>
+      </c>
+      <c r="D2292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2292" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>Dayton Flyers</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>GW Revolutionaries</t>
+        </is>
+      </c>
+      <c r="D2293" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2293" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>Northern Illinois Huskies</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>Toledo Rockets</t>
+        </is>
+      </c>
+      <c r="D2294" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>61</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>Wyoming Cowboys</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>UNLV Rebels</t>
+        </is>
+      </c>
+      <c r="D2295" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2295" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>DePaul Blue Demons</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>Georgetown Hoyas</t>
+        </is>
+      </c>
+      <c r="D2296" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>Minnesota Golden Gophers</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>Iowa Hawkeyes</t>
+        </is>
+      </c>
+      <c r="D2297" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>Kent State Golden Flashes</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>Bowling Green Falcons</t>
+        </is>
+      </c>
+      <c r="D2298" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>Florida Gators</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>Georgia Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2299" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2299" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>LSU Tigers</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>South Carolina Gamecocks</t>
+        </is>
+      </c>
+      <c r="D2300" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2300" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>-17.5</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>Miami (OH) RedHawks</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>Western Michigan Broncos</t>
+        </is>
+      </c>
+      <c r="D2301" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E2301" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>Ball State Cardinals</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>Eastern Michigan Eagles</t>
+        </is>
+      </c>
+      <c r="D2302" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2302" t="n">
+        <v>52</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>-23.5</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>West Virginia Mountaineers</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>Cincinnati Bearcats</t>
+        </is>
+      </c>
+      <c r="D2303" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2303" t="n">
+        <v>62</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>Akron Zips</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>Central Michigan Chippewas</t>
+        </is>
+      </c>
+      <c r="D2304" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="E2304" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>Butler Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>St. John's Red Storm</t>
+        </is>
+      </c>
+      <c r="D2305" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2305" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>Penn State Nittany Lions</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>Michigan Wolverines</t>
+        </is>
+      </c>
+      <c r="D2306" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E2306" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>Louisville Cardinals</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>Duke Blue Devils</t>
+        </is>
+      </c>
+      <c r="D2307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2307" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>Georgia Tech Yellow Jackets</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>Syracuse Orange</t>
+        </is>
+      </c>
+      <c r="D2308" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2308" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>Oklahoma St Cowboys</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>UCF Knights</t>
+        </is>
+      </c>
+      <c r="D2309" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2309" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>Nevada Wolf Pack</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>San Diego St Aztecs</t>
+        </is>
+      </c>
+      <c r="D2310" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2310" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>Chattanooga Mocs</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>Furman Paladins</t>
+        </is>
+      </c>
+      <c r="D2311" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2311" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>VCU Rams</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>Saint Louis Billikens</t>
+        </is>
+      </c>
+      <c r="D2312" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2312" t="n">
+        <v>62</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>Northern Iowa Panthers</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>Belmont Bruins</t>
+        </is>
+      </c>
+      <c r="D2313" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2313" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>Youngstown St Penguins</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>Fort Wayne Mastodons</t>
+        </is>
+      </c>
+      <c r="D2314" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2314" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>Wichita St Shockers</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>Rice Owls</t>
+        </is>
+      </c>
+      <c r="D2315" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2315" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>Villanova Wildcats</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>Creighton Bluejays</t>
+        </is>
+      </c>
+      <c r="D2316" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2316" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>UAB Blazers</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>Florida Atlantic Owls</t>
+        </is>
+      </c>
+      <c r="D2317" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2317" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>Valparaiso Beacons</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>Illinois St Redbirds</t>
+        </is>
+      </c>
+      <c r="D2318" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E2318" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>Evansville Purple Aces</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>Murray St Racers</t>
+        </is>
+      </c>
+      <c r="D2319" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E2319" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>UIC Flames</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>Southern Illinois Salukis</t>
+        </is>
+      </c>
+      <c r="D2320" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2320" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>UTSA Roadrunners</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>Charlotte 49ers</t>
+        </is>
+      </c>
+      <c r="D2321" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E2321" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>Arkansas St Red Wolves</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>Troy Trojans</t>
+        </is>
+      </c>
+      <c r="D2322" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2322" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>North Texas Mean Green</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>South Florida Bulls</t>
+        </is>
+      </c>
+      <c r="D2323" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2323" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>Baylor Bears</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>Iowa State Cyclones</t>
+        </is>
+      </c>
+      <c r="D2324" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2324" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>Purdue Boilermakers</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>Washington Huskies</t>
+        </is>
+      </c>
+      <c r="D2325" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E2325" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>BYU Cougars</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>Arizona St Sun Devils</t>
+        </is>
+      </c>
+      <c r="D2326" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="E2326" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>Colorado Buffaloes</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>Utah Utes</t>
+        </is>
+      </c>
+      <c r="D2327" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2327" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>Ole Miss Rebels</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>Arkansas Razorbacks</t>
+        </is>
+      </c>
+      <c r="D2328" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>Clemson Tigers</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>SMU Mustangs</t>
+        </is>
+      </c>
+      <c r="D2329" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2329" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>Virginia Cavaliers</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>California Golden Bears</t>
+        </is>
+      </c>
+      <c r="D2330" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E2330" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>St. Thomas (MN) Tommies</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>South Dakota Coyotes</t>
+        </is>
+      </c>
+      <c r="D2331" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E2331" t="n">
+        <v>99</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>Bradley Braves</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>Drake Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2332" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2332" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>Loyola (Chi) Ramblers</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>Davidson Wildcats</t>
+        </is>
+      </c>
+      <c r="D2333" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2333" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>Vanderbilt Commodores</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>Alabama Crimson Tide</t>
+        </is>
+      </c>
+      <c r="D2334" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2334" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>St. Bonaventure Bonnies</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>Richmond Spiders</t>
+        </is>
+      </c>
+      <c r="D2335" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2335" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>Fordham Rams</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>George Mason Patriots</t>
+        </is>
+      </c>
+      <c r="D2336" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2336" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>Jacksonville St Gamecocks</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>Florida Int'l Golden Panthers</t>
+        </is>
+      </c>
+      <c r="D2337" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2337" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>James Madison Dukes</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>Marshall Thundering Herd</t>
+        </is>
+      </c>
+      <c r="D2338" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2338" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>Army Knights</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>Loyola (MD) Greyhounds</t>
+        </is>
+      </c>
+      <c r="D2339" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2339" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>Wofford Terriers</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>UNC Greensboro Spartans</t>
+        </is>
+      </c>
+      <c r="D2340" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2340" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>Lehigh Mountain Hawks</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>Holy Cross Crusaders</t>
+        </is>
+      </c>
+      <c r="D2341" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2341" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>Maryland Terrapins</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>Indiana Hoosiers</t>
+        </is>
+      </c>
+      <c r="D2342" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2342" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>Winthrop Eagles</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>Charleston Southern Buccaneers</t>
+        </is>
+      </c>
+      <c r="D2343" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2343" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>UNC Asheville Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>Longwood Lancers</t>
+        </is>
+      </c>
+      <c r="D2344" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2344" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>East Tennessee St Buccaneers</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>VMI Keydets</t>
+        </is>
+      </c>
+      <c r="D2345" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E2345" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>Virginia Tech Hokies</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>Stanford Cardinal</t>
+        </is>
+      </c>
+      <c r="D2346" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2346" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>Kentucky Wildcats</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>Missouri Tigers</t>
+        </is>
+      </c>
+      <c r="D2347" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2347" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>-17.5</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>Marquette Golden Eagles</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>Xavier Musketeers</t>
+        </is>
+      </c>
+      <c r="D2348" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2348" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>Mississippi St Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>Oklahoma Sooners</t>
+        </is>
+      </c>
+      <c r="D2349" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2349" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>53</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>Arizona Wildcats</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>Kansas St Wildcats</t>
+        </is>
+      </c>
+      <c r="D2350" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="E2350" t="n">
+        <v>101</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>Wake Forest Demon Deacons</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>Miami Hurricanes</t>
+        </is>
+      </c>
+      <c r="D2351" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2351" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>Samford Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>Western Carolina Catamounts</t>
+        </is>
+      </c>
+      <c r="D2352" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2352" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>Lafayette Leopards</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>Boston Univ. Terriers</t>
+        </is>
+      </c>
+      <c r="D2353" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2353" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>Radford Highlanders</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>Presbyterian Blue Hose</t>
+        </is>
+      </c>
+      <c r="D2354" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2354" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>Temple Owls</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>East Carolina Pirates</t>
+        </is>
+      </c>
+      <c r="D2355" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2355" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>High Point Panthers</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>Gardner-Webb Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2356" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="E2356" t="n">
+        <v>104</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>Mercer Bears</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>The Citadel Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2357" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E2357" t="n">
+        <v>101</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>Saint Joseph's Hawks</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>Duquesne Dukes</t>
+        </is>
+      </c>
+      <c r="D2358" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2358" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>Navy Midshipmen</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>Bucknell Bison</t>
+        </is>
+      </c>
+      <c r="D2359" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2359" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>Kennesaw St Owls</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>Missouri St Bears</t>
+        </is>
+      </c>
+      <c r="D2360" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2360" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>Colgate Raiders</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>American Eagles</t>
+        </is>
+      </c>
+      <c r="D2361" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2361" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>Rhode Island Rams</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>La Salle Explorers</t>
+        </is>
+      </c>
+      <c r="D2362" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2362" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>Providence Friars</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>UConn Huskies</t>
+        </is>
+      </c>
+      <c r="D2363" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E2363" t="n">
+        <v>98</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>103</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>Boise State Broncos</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>Grand Canyon Antelopes</t>
+        </is>
+      </c>
+      <c r="D2364" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2364" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2364" t="n">
+        <v>-25.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/results/ncaam_season_results.xlsx
+++ b/backend/data/results/ncaam_season_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2364"/>
+  <dimension ref="A1:G2621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64271,6 +64271,6945 @@
         <v>-25.5</v>
       </c>
     </row>
+    <row r="2365">
+      <c r="A2365" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>Towson Tigers</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>Hofstra Pride</t>
+        </is>
+      </c>
+      <c r="D2365" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2365" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>Northern Arizona Lumberjacks</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>Weber State Wildcats</t>
+        </is>
+      </c>
+      <c r="D2366" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2366" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2366" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>Southern Miss Golden Eagles</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>Texas State Bobcats</t>
+        </is>
+      </c>
+      <c r="D2367" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2367" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2367" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>South Dakota St Jackrabbits</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>Denver Pioneers</t>
+        </is>
+      </c>
+      <c r="D2368" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2368" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2368" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2368" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>Omaha Mavericks</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>North Dakota Fighting Hawks</t>
+        </is>
+      </c>
+      <c r="D2369" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2369" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2369" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2369" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>UMKC Kangaroos</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>North Dakota St Bison</t>
+        </is>
+      </c>
+      <c r="D2370" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E2370" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2370" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2370" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>Southern Indiana Screaming Eagles</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>SE Missouri St Redhawks</t>
+        </is>
+      </c>
+      <c r="D2371" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2371" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2371" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2371" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>Eastern Illinois Panthers</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>Tennessee Tech Golden Eagles</t>
+        </is>
+      </c>
+      <c r="D2372" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2372" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2372" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2372" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>Western Illinois Leathernecks</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>Tennessee St Tigers</t>
+        </is>
+      </c>
+      <c r="D2373" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E2373" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2373" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>SIU-Edwardsville Cougars</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>Arkansas-Little Rock Trojans</t>
+        </is>
+      </c>
+      <c r="D2374" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2374" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2374" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>Illinois Fighting Illini</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>Rutgers Scarlet Knights</t>
+        </is>
+      </c>
+      <c r="D2375" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="E2375" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2375" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>Louisiana Ragin' Cajuns</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>UL Monroe Warhawks</t>
+        </is>
+      </c>
+      <c r="D2376" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2376" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2376" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>Eastern Washington Eagles</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>Montana St Bobcats</t>
+        </is>
+      </c>
+      <c r="D2377" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2377" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2377" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>UC Santa Barbara Gauchos</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>UC Davis Aggies</t>
+        </is>
+      </c>
+      <c r="D2378" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2378" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2378" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>Idaho Vandals</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>Montana Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2379" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2379" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2379" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>New Mexico St Aggies</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>Western Kentucky Hilltoppers</t>
+        </is>
+      </c>
+      <c r="D2380" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2380" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2380" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2380" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>UTEP Miners</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>Middle Tennessee Blue Raiders</t>
+        </is>
+      </c>
+      <c r="D2381" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2381" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>San Diego Toreros</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>Pepperdine Waves</t>
+        </is>
+      </c>
+      <c r="D2382" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2382" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>CSU Bakersfield Roadrunners</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>UC Riverside Highlanders</t>
+        </is>
+      </c>
+      <c r="D2383" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2383" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>UC Irvine Anteaters</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>Long Beach St 49ers</t>
+        </is>
+      </c>
+      <c r="D2384" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2384" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>Cal Baptist Lancers</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>Utah Tech Trailblazers</t>
+        </is>
+      </c>
+      <c r="D2385" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2385" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>UC San Diego Tritons</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>CSU Fullerton Titans</t>
+        </is>
+      </c>
+      <c r="D2386" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E2386" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>-30.5</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>Portland Pilots</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>Pacific Tigers</t>
+        </is>
+      </c>
+      <c r="D2387" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2387" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>CSU Northridge Matadors</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>Cal Poly Mustangs</t>
+        </is>
+      </c>
+      <c r="D2388" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2388" t="n">
+        <v>95</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>Oregon St Beavers</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>Seattle Redhawks</t>
+        </is>
+      </c>
+      <c r="D2389" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2389" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>Oregon Ducks</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>Ohio State Buckeyes</t>
+        </is>
+      </c>
+      <c r="D2390" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2390" t="n">
+        <v>62</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>Tarleton State Texans</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>Abilene Christian Wildcats</t>
+        </is>
+      </c>
+      <c r="D2391" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2391" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>Loyola Marymount Lions</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>San Francisco Dons</t>
+        </is>
+      </c>
+      <c r="D2392" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2392" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>Utah Valley Wolverines</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>Southern Utah Thunderbirds</t>
+        </is>
+      </c>
+      <c r="D2393" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="E2393" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2393" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>Sam Houston St Bearkats</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>Delaware Blue Hens</t>
+        </is>
+      </c>
+      <c r="D2394" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2394" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>Fairleigh Dickinson Knights</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>Chicago St Cougars</t>
+        </is>
+      </c>
+      <c r="D2395" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2395" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>Bryant Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>UMass Lowell River Hawks</t>
+        </is>
+      </c>
+      <c r="D2396" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2396" t="n">
+        <v>63</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>UMBC Retrievers</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>Maine Black Bears</t>
+        </is>
+      </c>
+      <c r="D2397" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2397" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>Michigan St Spartans</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>Northwestern Wildcats</t>
+        </is>
+      </c>
+      <c r="D2398" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E2398" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>Georgia St Panthers</t>
+        </is>
+      </c>
+      <c r="C2399" t="inlineStr">
+        <is>
+          <t>Appalachian St Mountaineers</t>
+        </is>
+      </c>
+      <c r="D2399" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2399" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>52</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>Campbell Fighting Camels</t>
+        </is>
+      </c>
+      <c r="C2400" t="inlineStr">
+        <is>
+          <t>Hampton Pirates</t>
+        </is>
+      </c>
+      <c r="D2400" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2400" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2400" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>Coastal Carolina Chanticleers</t>
+        </is>
+      </c>
+      <c r="C2401" t="inlineStr">
+        <is>
+          <t>Old Dominion Monarchs</t>
+        </is>
+      </c>
+      <c r="D2401" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2401" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2401" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>Drexel Dragons</t>
+        </is>
+      </c>
+      <c r="C2402" t="inlineStr">
+        <is>
+          <t>Stony Brook Seawolves</t>
+        </is>
+      </c>
+      <c r="D2402" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2402" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2402" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>North Carolina A&amp;T Aggies</t>
+        </is>
+      </c>
+      <c r="C2403" t="inlineStr">
+        <is>
+          <t>Elon Phoenix</t>
+        </is>
+      </c>
+      <c r="D2403" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E2403" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2403" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>Louisiana Tech Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2404" t="inlineStr">
+        <is>
+          <t>Liberty Flames</t>
+        </is>
+      </c>
+      <c r="D2404" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2404" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2404" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>Monmouth Hawks</t>
+        </is>
+      </c>
+      <c r="C2405" t="inlineStr">
+        <is>
+          <t>William &amp; Mary Tribe</t>
+        </is>
+      </c>
+      <c r="D2405" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2405" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2405" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>Wagner Seahawks</t>
+        </is>
+      </c>
+      <c r="C2406" t="inlineStr">
+        <is>
+          <t>St. Francis (PA) Red Flash</t>
+        </is>
+      </c>
+      <c r="D2406" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2406" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2406" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>Le Moyne Dolphins</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>New Haven Chargers</t>
+        </is>
+      </c>
+      <c r="D2407" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2407" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>47</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>Northeastern Huskies</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>UNC Wilmington Seahawks</t>
+        </is>
+      </c>
+      <c r="D2408" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2408" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>Central Connecticut St Blue Devils</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>Stonehill Skyhawks</t>
+        </is>
+      </c>
+      <c r="D2409" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2409" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2409" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>Jacksonville Dolphins</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>Queens University Royals</t>
+        </is>
+      </c>
+      <c r="D2410" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2410" t="n">
+        <v>51</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2410" t="n">
+        <v>-21.5</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>Vermont Catamounts</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>Binghamton Bearcats</t>
+        </is>
+      </c>
+      <c r="D2411" t="n">
+        <v>-20.5</v>
+      </c>
+      <c r="E2411" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2411" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2411" t="n">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>Eastern Kentucky Colonels</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>North Alabama Lions</t>
+        </is>
+      </c>
+      <c r="D2412" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2412" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2412" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>Bellarmine Knights</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>Central Arkansas Bears</t>
+        </is>
+      </c>
+      <c r="D2413" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2413" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2413" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>North Florida Ospreys</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>West Georgia Wolves</t>
+        </is>
+      </c>
+      <c r="D2414" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2414" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2414" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>Stetson Hatters</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>Lipscomb Bisons</t>
+        </is>
+      </c>
+      <c r="D2415" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E2415" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2415" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>Florida Gulf Coast Eagles</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>Austin Peay Governors</t>
+        </is>
+      </c>
+      <c r="D2416" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2416" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2416" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>LIU Sharks</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>Mercyhurst Lakers</t>
+        </is>
+      </c>
+      <c r="D2417" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2417" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2417" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>NJIT Highlanders</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>New Hampshire Wildcats</t>
+        </is>
+      </c>
+      <c r="D2418" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2418" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2418" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>Morehead St Eagles</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>Tenn-Martin Skyhawks</t>
+        </is>
+      </c>
+      <c r="D2419" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2419" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2419" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>N Colorado Bears</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>Idaho State Bengals</t>
+        </is>
+      </c>
+      <c r="D2420" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2420" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2420" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>Gonzaga Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>Santa Clara Broncos</t>
+        </is>
+      </c>
+      <c r="D2421" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="E2421" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2421" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>Toledo Rockets</t>
+        </is>
+      </c>
+      <c r="C2422" t="inlineStr">
+        <is>
+          <t>Miami (OH) RedHawks</t>
+        </is>
+      </c>
+      <c r="D2422" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2422" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2422" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2422" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>Sacred Heart Pioneers</t>
+        </is>
+      </c>
+      <c r="C2423" t="inlineStr">
+        <is>
+          <t>Marist Red Foxes</t>
+        </is>
+      </c>
+      <c r="D2423" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2423" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2423" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>Oakland Golden Grizzlies</t>
+        </is>
+      </c>
+      <c r="C2424" t="inlineStr">
+        <is>
+          <t>Cleveland St Vikings</t>
+        </is>
+      </c>
+      <c r="D2424" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E2424" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2424" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>Green Bay Phoenix</t>
+        </is>
+      </c>
+      <c r="C2425" t="inlineStr">
+        <is>
+          <t>IUPUI Jaguars</t>
+        </is>
+      </c>
+      <c r="D2425" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2425" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2425" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>Iona Gaels</t>
+        </is>
+      </c>
+      <c r="C2426" t="inlineStr">
+        <is>
+          <t>Niagara Purple Eagles</t>
+        </is>
+      </c>
+      <c r="D2426" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2426" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>53</v>
+      </c>
+      <c r="G2426" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>Manhattan Jaspers</t>
+        </is>
+      </c>
+      <c r="C2427" t="inlineStr">
+        <is>
+          <t>Canisius Golden Griffins</t>
+        </is>
+      </c>
+      <c r="D2427" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2427" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2427" t="n">
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>Fairfield Stags</t>
+        </is>
+      </c>
+      <c r="C2428" t="inlineStr">
+        <is>
+          <t>Rider Broncs</t>
+        </is>
+      </c>
+      <c r="D2428" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2428" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2428" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>Siena Saints</t>
+        </is>
+      </c>
+      <c r="C2429" t="inlineStr">
+        <is>
+          <t>Merrimack Warriors</t>
+        </is>
+      </c>
+      <c r="D2429" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2429" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2429" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>Mt. St. Mary's Mountaineers</t>
+        </is>
+      </c>
+      <c r="C2430" t="inlineStr">
+        <is>
+          <t>Saint Peter's Peacocks</t>
+        </is>
+      </c>
+      <c r="D2430" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2430" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2430" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>Detroit Mercy Titans</t>
+        </is>
+      </c>
+      <c r="C2431" t="inlineStr">
+        <is>
+          <t>Wright St Raiders</t>
+        </is>
+      </c>
+      <c r="D2431" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2431" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2431" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>Milwaukee Panthers</t>
+        </is>
+      </c>
+      <c r="C2432" t="inlineStr">
+        <is>
+          <t>Northern Kentucky Norse</t>
+        </is>
+      </c>
+      <c r="D2432" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2432" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2432" t="n">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>Bowling Green Falcons</t>
+        </is>
+      </c>
+      <c r="C2433" t="inlineStr">
+        <is>
+          <t>Akron Zips</t>
+        </is>
+      </c>
+      <c r="D2433" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2433" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2433" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>Minnesota Golden Gophers</t>
+        </is>
+      </c>
+      <c r="C2434" t="inlineStr">
+        <is>
+          <t>USC Trojans</t>
+        </is>
+      </c>
+      <c r="D2434" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2434" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2434" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>Colorado St Rams</t>
+        </is>
+      </c>
+      <c r="C2435" t="inlineStr">
+        <is>
+          <t>UNLV Rebels</t>
+        </is>
+      </c>
+      <c r="D2435" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2435" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2435" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>Florida Gators</t>
+        </is>
+      </c>
+      <c r="C2436" t="inlineStr">
+        <is>
+          <t>Tennessee Volunteers</t>
+        </is>
+      </c>
+      <c r="D2436" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2436" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2436" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>McNeese Cowboys</t>
+        </is>
+      </c>
+      <c r="C2437" t="inlineStr">
+        <is>
+          <t>SE Louisiana Lions</t>
+        </is>
+      </c>
+      <c r="D2437" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E2437" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2437" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>Georgetown Hoyas</t>
+        </is>
+      </c>
+      <c r="C2438" t="inlineStr">
+        <is>
+          <t>Seton Hall Pirates</t>
+        </is>
+      </c>
+      <c r="D2438" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2438" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2438" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>UTSA Roadrunners</t>
+        </is>
+      </c>
+      <c r="C2439" t="inlineStr">
+        <is>
+          <t>Tulane Green Wave</t>
+        </is>
+      </c>
+      <c r="D2439" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2439" t="n">
+        <v>52</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2439" t="n">
+        <v>-25.5</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>Illinois St Redbirds</t>
+        </is>
+      </c>
+      <c r="C2440" t="inlineStr">
+        <is>
+          <t>UIC Flames</t>
+        </is>
+      </c>
+      <c r="D2440" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2440" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2440" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>Charleston Cougars</t>
+        </is>
+      </c>
+      <c r="C2441" t="inlineStr">
+        <is>
+          <t>Hampton Pirates</t>
+        </is>
+      </c>
+      <c r="D2441" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2441" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2441" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>Missouri St Bears</t>
+        </is>
+      </c>
+      <c r="C2442" t="inlineStr">
+        <is>
+          <t>Florida Int'l Golden Panthers</t>
+        </is>
+      </c>
+      <c r="D2442" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2442" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2442" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>Bucknell Bison</t>
+        </is>
+      </c>
+      <c r="C2443" t="inlineStr">
+        <is>
+          <t>Loyola (MD) Greyhounds</t>
+        </is>
+      </c>
+      <c r="D2443" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2443" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2443" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>Idaho Vandals</t>
+        </is>
+      </c>
+      <c r="C2444" t="inlineStr">
+        <is>
+          <t>Montana St Bobcats</t>
+        </is>
+      </c>
+      <c r="D2444" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2444" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2444" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>Eastern Washington Eagles</t>
+        </is>
+      </c>
+      <c r="C2445" t="inlineStr">
+        <is>
+          <t>Montana Grizzlies</t>
+        </is>
+      </c>
+      <c r="D2445" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2445" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2445" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>Kennesaw St Owls</t>
+        </is>
+      </c>
+      <c r="C2446" t="inlineStr">
+        <is>
+          <t>Jacksonville St Gamecocks</t>
+        </is>
+      </c>
+      <c r="D2446" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2446" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2446" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>Portland St Vikings</t>
+        </is>
+      </c>
+      <c r="C2447" t="inlineStr">
+        <is>
+          <t>Sacramento St Hornets</t>
+        </is>
+      </c>
+      <c r="D2447" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2447" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2447" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>Saint Mary's Gaels</t>
+        </is>
+      </c>
+      <c r="C2448" t="inlineStr">
+        <is>
+          <t>Washington St Cougars</t>
+        </is>
+      </c>
+      <c r="D2448" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E2448" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2448" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>Coppin St Eagles</t>
+        </is>
+      </c>
+      <c r="C2449" t="inlineStr">
+        <is>
+          <t>North Carolina Central Eagles</t>
+        </is>
+      </c>
+      <c r="D2449" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E2449" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>88</v>
+      </c>
+      <c r="G2449" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>Texas Southern Tigers</t>
+        </is>
+      </c>
+      <c r="C2450" t="inlineStr">
+        <is>
+          <t>Arkansas-Pine Bluff Golden Lions</t>
+        </is>
+      </c>
+      <c r="D2450" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2450" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2450" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2450" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>Cal Poly Mustangs</t>
+        </is>
+      </c>
+      <c r="C2451" t="inlineStr">
+        <is>
+          <t>UC Davis Aggies</t>
+        </is>
+      </c>
+      <c r="D2451" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2451" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2451" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2451" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>Morgan St Bears</t>
+        </is>
+      </c>
+      <c r="C2452" t="inlineStr">
+        <is>
+          <t>South Carolina St Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2452" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2452" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2452" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2452" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>Maryland-Eastern Shore Hawks</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>Howard Bison</t>
+        </is>
+      </c>
+      <c r="D2453" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2453" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2453" t="n">
+        <v>57</v>
+      </c>
+      <c r="G2453" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>Delaware St Hornets</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>Norfolk St Spartans</t>
+        </is>
+      </c>
+      <c r="D2454" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2454" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2454" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2454" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>James Madison Dukes</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>Old Dominion Monarchs</t>
+        </is>
+      </c>
+      <c r="D2455" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2455" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2455" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2455" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>Murray St Racers</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>Valparaiso Beacons</t>
+        </is>
+      </c>
+      <c r="D2456" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2456" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2456" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2456" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>East Tennessee St Buccaneers</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>UNC Greensboro Spartans</t>
+        </is>
+      </c>
+      <c r="D2457" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2457" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2457" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2457" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>Utah Valley Wolverines</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>Utah Tech Trailblazers</t>
+        </is>
+      </c>
+      <c r="D2458" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E2458" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2458" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2458" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>Florida Gulf Coast Eagles</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>Lipscomb Bisons</t>
+        </is>
+      </c>
+      <c r="D2459" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2459" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2459" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2459" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>UTEP Miners</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>Western Kentucky Hilltoppers</t>
+        </is>
+      </c>
+      <c r="D2460" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2460" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2460" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2460" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>Alabama St Hornets</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>Jackson St Tigers</t>
+        </is>
+      </c>
+      <c r="D2461" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2461" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2461" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2461" t="n">
+        <v>-17.5</v>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>Virginia Tech Hokies</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>California Golden Bears</t>
+        </is>
+      </c>
+      <c r="D2462" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2462" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2462" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2462" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>LIU Sharks</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>St. Francis (PA) Red Flash</t>
+        </is>
+      </c>
+      <c r="D2463" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E2463" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2463" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>TCU Horned Frogs</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>Arizona Wildcats</t>
+        </is>
+      </c>
+      <c r="D2464" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2464" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2464" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>Lindenwood Lions</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>Arkansas-Little Rock Trojans</t>
+        </is>
+      </c>
+      <c r="D2465" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2465" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2465" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>Chattanooga Mocs</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>Samford Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2466" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2466" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2466" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>Eastern Illinois Panthers</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>Tennessee St Tigers</t>
+        </is>
+      </c>
+      <c r="D2467" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2467" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2467" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>Western Illinois Leathernecks</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>Tennessee Tech Golden Eagles</t>
+        </is>
+      </c>
+      <c r="D2468" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2468" t="n">
+        <v>54</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>Northwestern St Demons</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M-CC Islanders</t>
+        </is>
+      </c>
+      <c r="D2469" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2469" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2469" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>Alabama A&amp;M Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>Alcorn St Braves</t>
+        </is>
+      </c>
+      <c r="D2470" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2470" t="n">
+        <v>62</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>Eastern Kentucky Colonels</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>Central Arkansas Bears</t>
+        </is>
+      </c>
+      <c r="D2471" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2471" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>Bethune-Cookman Wildcats</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>Grambling St Tigers</t>
+        </is>
+      </c>
+      <c r="D2472" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2472" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>Auburn Tigers</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>Arkansas Razorbacks</t>
+        </is>
+      </c>
+      <c r="D2473" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2473" t="n">
+        <v>95</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>Northern Arizona Lumberjacks</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>Idaho State Bengals</t>
+        </is>
+      </c>
+      <c r="D2474" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2474" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>Portland Pilots</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>Oregon St Beavers</t>
+        </is>
+      </c>
+      <c r="D2475" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2475" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>Pepperdine Waves</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>San Francisco Dons</t>
+        </is>
+      </c>
+      <c r="D2476" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2476" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>Oral Roberts Golden Eagles</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>St. Thomas (MN) Tommies</t>
+        </is>
+      </c>
+      <c r="D2477" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E2477" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>Grand Canyon Antelopes</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>San José St Spartans</t>
+        </is>
+      </c>
+      <c r="D2478" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="E2478" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>New Mexico St Aggies</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>Middle Tennessee Blue Raiders</t>
+        </is>
+      </c>
+      <c r="D2479" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2479" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>Cal Baptist Lancers</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>Southern Utah Thunderbirds</t>
+        </is>
+      </c>
+      <c r="D2480" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E2480" t="n">
+        <v>58</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>UCLA Bruins</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>Maryland Terrapins</t>
+        </is>
+      </c>
+      <c r="D2481" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E2481" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>Alabama Crimson Tide</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>Texas Longhorns</t>
+        </is>
+      </c>
+      <c r="D2482" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2482" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>92</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>Southern Indiana Screaming Eagles</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>Tenn-Martin Skyhawks</t>
+        </is>
+      </c>
+      <c r="D2483" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2483" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>Kentucky Wildcats</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>Mississippi St Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2484" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2484" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>Boise State Broncos</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>Utah State Aggies</t>
+        </is>
+      </c>
+      <c r="D2485" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2485" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>-23.5</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>Santa Clara Broncos</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>Loyola Marymount Lions</t>
+        </is>
+      </c>
+      <c r="D2486" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2486" t="n">
+        <v>103</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>Nevada Wolf Pack</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>Wyoming Cowboys</t>
+        </is>
+      </c>
+      <c r="D2487" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2487" t="n">
+        <v>92</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>UMKC Kangaroos</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>North Dakota Fighting Hawks</t>
+        </is>
+      </c>
+      <c r="D2488" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2488" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2488" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>UC Riverside Highlanders</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>UC San Diego Tritons</t>
+        </is>
+      </c>
+      <c r="D2489" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E2489" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>N Colorado Bears</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>Weber State Wildcats</t>
+        </is>
+      </c>
+      <c r="D2490" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2490" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>Elon Phoenix</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>Campbell Fighting Camels</t>
+        </is>
+      </c>
+      <c r="D2491" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2491" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>North Carolina Tar Heels</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>Wake Forest Demon Deacons</t>
+        </is>
+      </c>
+      <c r="D2492" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2492" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>Ole Miss Rebels</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>Missouri Tigers</t>
+        </is>
+      </c>
+      <c r="D2493" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2493" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>East Texas A&amp;M Lions</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>UT Rio Grande Valley Vaqueros</t>
+        </is>
+      </c>
+      <c r="D2494" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2494" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>Stony Brook Seawolves</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>UNC Wilmington Seahawks</t>
+        </is>
+      </c>
+      <c r="D2495" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2495" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>Drake Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>Belmont Bruins</t>
+        </is>
+      </c>
+      <c r="D2496" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2496" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>Stephen F. Austin Lumberjacks</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>Houston Christian Huskies</t>
+        </is>
+      </c>
+      <c r="D2497" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2497" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>Notre Dame Fighting Irish</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>Clemson Tigers</t>
+        </is>
+      </c>
+      <c r="D2498" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2498" t="n">
+        <v>61</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>New Orleans Privateers</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>Nicholls St Colonels</t>
+        </is>
+      </c>
+      <c r="D2499" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2499" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2499" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>Bradley Braves</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>Northern Iowa Panthers</t>
+        </is>
+      </c>
+      <c r="D2500" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2500" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>Florida A&amp;M Rattlers</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>Southern Jaguars</t>
+        </is>
+      </c>
+      <c r="D2501" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2501" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>59</v>
+      </c>
+      <c r="G2501" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>Lamar Cardinals</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>Incarnate Word Cardinals</t>
+        </is>
+      </c>
+      <c r="D2502" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2502" t="n">
+        <v>63</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>51</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>Colorado Buffaloes</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>Texas Tech Red Raiders</t>
+        </is>
+      </c>
+      <c r="D2503" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2503" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>Long Beach St 49ers</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>CSU Bakersfield Roadrunners</t>
+        </is>
+      </c>
+      <c r="D2504" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2504" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>Pacific Tigers</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>San Diego Toreros</t>
+        </is>
+      </c>
+      <c r="D2505" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2505" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>CSU Fullerton Titans</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>CSU Northridge Matadors</t>
+        </is>
+      </c>
+      <c r="D2506" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2506" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>Prairie View Panthers</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>Miss Valley St Delta Devils</t>
+        </is>
+      </c>
+      <c r="D2507" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="E2507" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>American Eagles</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>Holy Cross Crusaders</t>
+        </is>
+      </c>
+      <c r="D2508" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2508" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>Georgia St Panthers</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>Marshall Thundering Herd</t>
+        </is>
+      </c>
+      <c r="D2509" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2509" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>La Salle Explorers</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>Saint Louis Billikens</t>
+        </is>
+      </c>
+      <c r="D2510" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E2510" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>Indiana St Sycamores</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>Evansville Purple Aces</t>
+        </is>
+      </c>
+      <c r="D2511" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2511" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>Vanderbilt Commodores</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>LSU Tigers</t>
+        </is>
+      </c>
+      <c r="D2512" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="E2512" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>Albany Great Danes</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>Bryant Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2513" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2513" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>46</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>Stetson Hatters</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>Austin Peay Governors</t>
+        </is>
+      </c>
+      <c r="D2514" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E2514" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>Bellarmine Knights</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>North Alabama Lions</t>
+        </is>
+      </c>
+      <c r="D2515" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2515" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>Stonehill Skyhawks</t>
+        </is>
+      </c>
+      <c r="C2516" t="inlineStr">
+        <is>
+          <t>Chicago St Cougars</t>
+        </is>
+      </c>
+      <c r="D2516" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2516" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2516" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>Baylor Bears</t>
+        </is>
+      </c>
+      <c r="C2517" t="inlineStr">
+        <is>
+          <t>Houston Cougars</t>
+        </is>
+      </c>
+      <c r="D2517" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2517" t="n">
+        <v>55</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2517" t="n">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>Colgate Raiders</t>
+        </is>
+      </c>
+      <c r="C2518" t="inlineStr">
+        <is>
+          <t>Lehigh Mountain Hawks</t>
+        </is>
+      </c>
+      <c r="D2518" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2518" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2518" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>NJIT Highlanders</t>
+        </is>
+      </c>
+      <c r="C2519" t="inlineStr">
+        <is>
+          <t>Maine Black Bears</t>
+        </is>
+      </c>
+      <c r="D2519" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2519" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2519" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>North Florida Ospreys</t>
+        </is>
+      </c>
+      <c r="C2520" t="inlineStr">
+        <is>
+          <t>Queens University Royals</t>
+        </is>
+      </c>
+      <c r="D2520" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E2520" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2520" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>Creighton Bluejays</t>
+        </is>
+      </c>
+      <c r="C2521" t="inlineStr">
+        <is>
+          <t>St. John's Red Storm</t>
+        </is>
+      </c>
+      <c r="D2521" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2521" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2521" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>Purdue Boilermakers</t>
+        </is>
+      </c>
+      <c r="C2522" t="inlineStr">
+        <is>
+          <t>Penn State Nittany Lions</t>
+        </is>
+      </c>
+      <c r="D2522" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="E2522" t="n">
+        <v>93</v>
+      </c>
+      <c r="F2522" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2522" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>Pittsburgh Panthers</t>
+        </is>
+      </c>
+      <c r="C2523" t="inlineStr">
+        <is>
+          <t>Syracuse Orange</t>
+        </is>
+      </c>
+      <c r="D2523" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2523" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2523" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>South Carolina Upstate Spartans</t>
+        </is>
+      </c>
+      <c r="C2524" t="inlineStr">
+        <is>
+          <t>Winthrop Eagles</t>
+        </is>
+      </c>
+      <c r="D2524" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2524" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2524" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2524" t="n">
+        <v>-15.5</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>Navy Midshipmen</t>
+        </is>
+      </c>
+      <c r="C2525" t="inlineStr">
+        <is>
+          <t>Lafayette Leopards</t>
+        </is>
+      </c>
+      <c r="D2525" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2525" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2525" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2525" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>Michigan Wolverines</t>
+        </is>
+      </c>
+      <c r="C2526" t="inlineStr">
+        <is>
+          <t>Wisconsin Badgers</t>
+        </is>
+      </c>
+      <c r="D2526" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="E2526" t="n">
+        <v>88</v>
+      </c>
+      <c r="F2526" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2526" t="n">
+        <v>-21.5</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>The Citadel Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2527" t="inlineStr">
+        <is>
+          <t>Western Carolina Catamounts</t>
+        </is>
+      </c>
+      <c r="D2527" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E2527" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2527" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2527" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>UMBC Retrievers</t>
+        </is>
+      </c>
+      <c r="C2528" t="inlineStr">
+        <is>
+          <t>New Hampshire Wildcats</t>
+        </is>
+      </c>
+      <c r="D2528" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2528" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2528" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2528" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>Indiana Hoosiers</t>
+        </is>
+      </c>
+      <c r="C2529" t="inlineStr">
+        <is>
+          <t>Nebraska Cornhuskers</t>
+        </is>
+      </c>
+      <c r="D2529" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2529" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2529" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2529" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>West Virginia Mountaineers</t>
+        </is>
+      </c>
+      <c r="C2530" t="inlineStr">
+        <is>
+          <t>Kansas Jayhawks</t>
+        </is>
+      </c>
+      <c r="D2530" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2530" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2530" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2530" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>St. Bonaventure Bonnies</t>
+        </is>
+      </c>
+      <c r="C2531" t="inlineStr">
+        <is>
+          <t>Fordham Rams</t>
+        </is>
+      </c>
+      <c r="D2531" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2531" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2531" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2531" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>George Mason Patriots</t>
+        </is>
+      </c>
+      <c r="C2532" t="inlineStr">
+        <is>
+          <t>VCU Rams</t>
+        </is>
+      </c>
+      <c r="D2532" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2532" t="n">
+        <v>86</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2532" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>Miami Hurricanes</t>
+        </is>
+      </c>
+      <c r="C2533" t="inlineStr">
+        <is>
+          <t>Georgia Tech Yellow Jackets</t>
+        </is>
+      </c>
+      <c r="D2533" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E2533" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2533" t="n">
+        <v>81</v>
+      </c>
+      <c r="G2533" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>Florida St Seminoles</t>
+        </is>
+      </c>
+      <c r="C2534" t="inlineStr">
+        <is>
+          <t>NC State Wolfpack</t>
+        </is>
+      </c>
+      <c r="D2534" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2534" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2534" t="n">
+        <v>113</v>
+      </c>
+      <c r="G2534" t="n">
+        <v>-39.5</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>Louisville Cardinals</t>
+        </is>
+      </c>
+      <c r="C2535" t="inlineStr">
+        <is>
+          <t>Boston College Eagles</t>
+        </is>
+      </c>
+      <c r="D2535" t="n">
+        <v>-21.5</v>
+      </c>
+      <c r="E2535" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2535" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>UConn Huskies</t>
+        </is>
+      </c>
+      <c r="C2536" t="inlineStr">
+        <is>
+          <t>DePaul Blue Demons</t>
+        </is>
+      </c>
+      <c r="D2536" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="E2536" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2536" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>Coastal Carolina Chanticleers</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>Appalachian St Mountaineers</t>
+        </is>
+      </c>
+      <c r="D2537" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2537" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>Boston Univ. Terriers</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>Army Knights</t>
+        </is>
+      </c>
+      <c r="D2538" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2538" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>Le Moyne Dolphins</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>Central Connecticut St Blue Devils</t>
+        </is>
+      </c>
+      <c r="D2539" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2539" t="n">
+        <v>59</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>Western Michigan Broncos</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>Eastern Michigan Eagles</t>
+        </is>
+      </c>
+      <c r="D2540" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2540" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>62</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>New Haven Chargers</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>Fairleigh Dickinson Knights</t>
+        </is>
+      </c>
+      <c r="D2541" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2541" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>Louisiana Ragin' Cajuns</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>Troy Trojans</t>
+        </is>
+      </c>
+      <c r="D2542" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E2542" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>90</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>Wagner Seahawks</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>Mercyhurst Lakers</t>
+        </is>
+      </c>
+      <c r="D2543" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2543" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>Charleston Southern Buccaneers</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>High Point Panthers</t>
+        </is>
+      </c>
+      <c r="D2544" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E2544" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>Columbia Lions</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>Harvard Crimson</t>
+        </is>
+      </c>
+      <c r="D2545" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2545" t="n">
+        <v>54</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>-30.5</v>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>Mercer Bears</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>Wofford Terriers</t>
+        </is>
+      </c>
+      <c r="D2546" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2546" t="n">
+        <v>109</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>97</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>Pennsylvania Quakers</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>Brown Bears</t>
+        </is>
+      </c>
+      <c r="D2547" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2547" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2547" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2547" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>Central Michigan Chippewas</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>Kent State Golden Flashes</t>
+        </is>
+      </c>
+      <c r="D2548" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E2548" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2548" t="n">
+        <v>85</v>
+      </c>
+      <c r="G2548" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>UT-Arlington Mavericks</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>Abilene Christian Wildcats</t>
+        </is>
+      </c>
+      <c r="D2549" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2549" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2549" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2549" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>Southern Miss Golden Eagles</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>UL Monroe Warhawks</t>
+        </is>
+      </c>
+      <c r="D2550" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E2550" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2550" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2550" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>Tulsa Golden Hurricane</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>South Florida Bulls</t>
+        </is>
+      </c>
+      <c r="D2551" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2551" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>93</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>Arkansas St Red Wolves</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>Texas State Bobcats</t>
+        </is>
+      </c>
+      <c r="D2552" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2552" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>Louisiana Tech Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>Delaware Blue Hens</t>
+        </is>
+      </c>
+      <c r="D2553" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2553" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2553" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2553" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>Arizona St Sun Devils</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>Kansas St Wildcats</t>
+        </is>
+      </c>
+      <c r="D2554" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2554" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2554" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2554" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>Air Force Falcons</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>New Mexico Lobos</t>
+        </is>
+      </c>
+      <c r="D2555" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E2555" t="n">
+        <v>49</v>
+      </c>
+      <c r="F2555" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2555" t="n">
+        <v>-25.5</v>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>GW Revolutionaries</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>Loyola (Chi) Ramblers</t>
+        </is>
+      </c>
+      <c r="D2556" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E2556" t="n">
+        <v>101</v>
+      </c>
+      <c r="F2556" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2556" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M Aggies</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>Oklahoma Sooners</t>
+        </is>
+      </c>
+      <c r="D2557" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2557" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2557" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2557" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>Sam Houston St Bearkats</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>Liberty Flames</t>
+        </is>
+      </c>
+      <c r="D2558" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2558" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2558" t="n">
+        <v>82</v>
+      </c>
+      <c r="G2558" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>Massachusetts Minutemen</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>Ball State Cardinals</t>
+        </is>
+      </c>
+      <c r="D2559" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E2559" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>Morehead St Eagles</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>SE Missouri St Redhawks</t>
+        </is>
+      </c>
+      <c r="D2560" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2560" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>Iowa State Cyclones</t>
+        </is>
+      </c>
+      <c r="C2561" t="inlineStr">
+        <is>
+          <t>Oklahoma St Cowboys</t>
+        </is>
+      </c>
+      <c r="D2561" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="E2561" t="n">
+        <v>83</v>
+      </c>
+      <c r="F2561" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2561" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>Xavier Musketeers</t>
+        </is>
+      </c>
+      <c r="C2562" t="inlineStr">
+        <is>
+          <t>Providence Friars</t>
+        </is>
+      </c>
+      <c r="D2562" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2562" t="n">
+        <v>97</v>
+      </c>
+      <c r="F2562" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2562" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>Longwood Lancers</t>
+        </is>
+      </c>
+      <c r="C2563" t="inlineStr">
+        <is>
+          <t>Presbyterian Blue Hose</t>
+        </is>
+      </c>
+      <c r="D2563" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2563" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2563" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2563" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>Utah Utes</t>
+        </is>
+      </c>
+      <c r="C2564" t="inlineStr">
+        <is>
+          <t>BYU Cougars</t>
+        </is>
+      </c>
+      <c r="D2564" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E2564" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2564" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2564" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>Jacksonville Dolphins</t>
+        </is>
+      </c>
+      <c r="C2565" t="inlineStr">
+        <is>
+          <t>West Georgia Wolves</t>
+        </is>
+      </c>
+      <c r="D2565" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2565" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2565" t="n">
+        <v>43</v>
+      </c>
+      <c r="G2565" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>Radford Highlanders</t>
+        </is>
+      </c>
+      <c r="C2566" t="inlineStr">
+        <is>
+          <t>UNC Asheville Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2566" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2566" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2566" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2566" t="n">
+        <v>-23.5</v>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>Binghamton Bearcats</t>
+        </is>
+      </c>
+      <c r="C2567" t="inlineStr">
+        <is>
+          <t>UMass Lowell River Hawks</t>
+        </is>
+      </c>
+      <c r="D2567" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E2567" t="n">
+        <v>68</v>
+      </c>
+      <c r="F2567" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2567" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>Hofstra Pride</t>
+        </is>
+      </c>
+      <c r="C2568" t="inlineStr">
+        <is>
+          <t>Monmouth Hawks</t>
+        </is>
+      </c>
+      <c r="D2568" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2568" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2568" t="n">
+        <v>64</v>
+      </c>
+      <c r="G2568" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>Furman Paladins</t>
+        </is>
+      </c>
+      <c r="C2569" t="inlineStr">
+        <is>
+          <t>VMI Keydets</t>
+        </is>
+      </c>
+      <c r="D2569" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2569" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2569" t="n">
+        <v>48</v>
+      </c>
+      <c r="G2569" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>Cornell Big Red</t>
+        </is>
+      </c>
+      <c r="C2570" t="inlineStr">
+        <is>
+          <t>Dartmouth Big Green</t>
+        </is>
+      </c>
+      <c r="D2570" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2570" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2570" t="n">
+        <v>102</v>
+      </c>
+      <c r="G2570" t="n">
+        <v>-20.5</v>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>Northeastern Huskies</t>
+        </is>
+      </c>
+      <c r="C2571" t="inlineStr">
+        <is>
+          <t>Towson Tigers</t>
+        </is>
+      </c>
+      <c r="D2571" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2571" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2571" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2571" t="n">
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>South Carolina Gamecocks</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>Georgia Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2572" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2572" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>South Alabama Jaguars</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>Georgia Southern Eagles</t>
+        </is>
+      </c>
+      <c r="D2573" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2573" t="n">
+        <v>87</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>Ohio Bobcats</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>Buffalo Bulls</t>
+        </is>
+      </c>
+      <c r="D2574" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2574" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2574" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>Davidson Wildcats</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>Rhode Island Rams</t>
+        </is>
+      </c>
+      <c r="D2575" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2575" t="n">
+        <v>45</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2575" t="n">
+        <v>-27.5</v>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>Drexel Dragons</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>William &amp; Mary Tribe</t>
+        </is>
+      </c>
+      <c r="D2576" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2576" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2576" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>Princeton Tigers</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>Yale Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2577" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2577" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2577" t="n">
+        <v>60</v>
+      </c>
+      <c r="G2577" t="n">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>Omaha Mavericks</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>North Dakota St Bison</t>
+        </is>
+      </c>
+      <c r="D2578" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2578" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2578" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2578" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>South Dakota Coyotes</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>Denver Pioneers</t>
+        </is>
+      </c>
+      <c r="D2579" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2579" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2579" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2579" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>Duke Blue Devils</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>SMU Mustangs</t>
+        </is>
+      </c>
+      <c r="D2580" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E2580" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2580" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2580" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>Virginia Cavaliers</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>Stanford Cardinal</t>
+        </is>
+      </c>
+      <c r="D2581" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2581" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2581" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2581" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>Marquette Golden Eagles</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>Villanova Wildcats</t>
+        </is>
+      </c>
+      <c r="D2582" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2582" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2582" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2582" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>San Diego St Aztecs</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>Fresno St Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2583" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="E2583" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2583" t="n">
+        <v>52</v>
+      </c>
+      <c r="G2583" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>Hawai'i Rainbow Warriors</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>UC Irvine Anteaters</t>
+        </is>
+      </c>
+      <c r="D2584" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2584" t="n">
+        <v>67</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>Rutgers Scarlet Knights</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>Northwestern Wildcats</t>
+        </is>
+      </c>
+      <c r="D2585" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2585" t="n">
+        <v>77</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>Oakland Golden Grizzlies</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>Wright St Raiders</t>
+        </is>
+      </c>
+      <c r="D2586" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2586" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2586" t="n">
+        <v>94</v>
+      </c>
+      <c r="G2586" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>Wichita St Shockers</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>North Texas Mean Green</t>
+        </is>
+      </c>
+      <c r="D2587" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2587" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2587" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2587" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>Milwaukee Panthers</t>
+        </is>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t>IUPUI Jaguars</t>
+        </is>
+      </c>
+      <c r="D2588" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2588" t="n">
+        <v>95</v>
+      </c>
+      <c r="F2588" t="n">
+        <v>83</v>
+      </c>
+      <c r="G2588" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>Sacred Heart Pioneers</t>
+        </is>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t>Quinnipiac Bobcats</t>
+        </is>
+      </c>
+      <c r="D2589" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2589" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2589" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2589" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>Mt. St. Mary's Mountaineers</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>Siena Saints</t>
+        </is>
+      </c>
+      <c r="D2590" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2590" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2590" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2590" t="n">
+        <v>-14.5</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>Saint Peter's Peacocks</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>Merrimack Warriors</t>
+        </is>
+      </c>
+      <c r="D2591" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2591" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2591" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2591" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>Rider Broncs</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>Marist Red Foxes</t>
+        </is>
+      </c>
+      <c r="D2592" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E2592" t="n">
+        <v>49</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>UCF Knights</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>Cincinnati Bearcats</t>
+        </is>
+      </c>
+      <c r="D2593" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2593" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2593" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2593" t="n">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>Manhattan Jaspers</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>Niagara Purple Eagles</t>
+        </is>
+      </c>
+      <c r="D2594" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="E2594" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>Robert Morris Colonials</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>Fort Wayne Mastodons</t>
+        </is>
+      </c>
+      <c r="D2595" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="E2595" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>East Carolina Pirates</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>UAB Blazers</t>
+        </is>
+      </c>
+      <c r="D2596" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2596" t="n">
+        <v>85</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>87</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>Rice Owls</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>Charlotte 49ers</t>
+        </is>
+      </c>
+      <c r="D2597" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2597" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>Florida Atlantic Owls</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>Memphis Tigers</t>
+        </is>
+      </c>
+      <c r="D2598" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2598" t="n">
+        <v>89</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2598" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>Detroit Mercy Titans</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>Cleveland St Vikings</t>
+        </is>
+      </c>
+      <c r="D2599" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2599" t="n">
+        <v>94</v>
+      </c>
+      <c r="F2599" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2599" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>Iona Gaels</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>Canisius Golden Griffins</t>
+        </is>
+      </c>
+      <c r="D2600" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="E2600" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2600" t="n">
+        <v>48</v>
+      </c>
+      <c r="G2600" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>Iowa Hawkeyes</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>Illinois Fighting Illini</t>
+        </is>
+      </c>
+      <c r="D2601" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2601" t="n">
+        <v>69</v>
+      </c>
+      <c r="F2601" t="n">
+        <v>75</v>
+      </c>
+      <c r="G2601" t="n">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>Richmond Spiders</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>Saint Joseph's Hawks</t>
+        </is>
+      </c>
+      <c r="D2602" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2602" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2602" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2602" t="n">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>Green Bay Phoenix</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>Northern Kentucky Norse</t>
+        </is>
+      </c>
+      <c r="D2603" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E2603" t="n">
+        <v>80</v>
+      </c>
+      <c r="F2603" t="n">
+        <v>78</v>
+      </c>
+      <c r="G2603" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" s="2" t="n">
+        <v>46033</v>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>Washington Huskies</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>Ohio State Buckeyes</t>
+        </is>
+      </c>
+      <c r="D2604" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2604" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2604" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>Morgan St Bears</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>North Carolina Central Eagles</t>
+        </is>
+      </c>
+      <c r="D2605" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2605" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2605" t="n">
+        <v>89</v>
+      </c>
+      <c r="G2605" t="n">
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>McNeese Cowboys</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>Nicholls St Colonels</t>
+        </is>
+      </c>
+      <c r="D2606" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="E2606" t="n">
+        <v>94</v>
+      </c>
+      <c r="F2606" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2606" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2607" t="inlineStr">
+        <is>
+          <t>Northwestern St Demons</t>
+        </is>
+      </c>
+      <c r="C2607" t="inlineStr">
+        <is>
+          <t>UT Rio Grande Valley Vaqueros</t>
+        </is>
+      </c>
+      <c r="D2607" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2607" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2607" t="n">
+        <v>63</v>
+      </c>
+      <c r="G2607" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2608" t="inlineStr">
+        <is>
+          <t>East Texas A&amp;M Lions</t>
+        </is>
+      </c>
+      <c r="C2608" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M-CC Islanders</t>
+        </is>
+      </c>
+      <c r="D2608" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E2608" t="n">
+        <v>50</v>
+      </c>
+      <c r="F2608" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2608" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2609" t="inlineStr">
+        <is>
+          <t>Florida A&amp;M Rattlers</t>
+        </is>
+      </c>
+      <c r="C2609" t="inlineStr">
+        <is>
+          <t>Grambling St Tigers</t>
+        </is>
+      </c>
+      <c r="D2609" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2609" t="n">
+        <v>91</v>
+      </c>
+      <c r="F2609" t="n">
+        <v>84</v>
+      </c>
+      <c r="G2609" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2610" t="inlineStr">
+        <is>
+          <t>Bethune-Cookman Wildcats</t>
+        </is>
+      </c>
+      <c r="C2610" t="inlineStr">
+        <is>
+          <t>Southern Jaguars</t>
+        </is>
+      </c>
+      <c r="D2610" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2610" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2610" t="n">
+        <v>77</v>
+      </c>
+      <c r="G2610" t="n">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2611" t="inlineStr">
+        <is>
+          <t>Alabama St Hornets</t>
+        </is>
+      </c>
+      <c r="C2611" t="inlineStr">
+        <is>
+          <t>Alcorn St Braves</t>
+        </is>
+      </c>
+      <c r="D2611" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="E2611" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2611" t="n">
+        <v>66</v>
+      </c>
+      <c r="G2611" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2612" t="inlineStr">
+        <is>
+          <t>Alabama A&amp;M Bulldogs</t>
+        </is>
+      </c>
+      <c r="C2612" t="inlineStr">
+        <is>
+          <t>Jackson St Tigers</t>
+        </is>
+      </c>
+      <c r="D2612" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2612" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2612" t="n">
+        <v>91</v>
+      </c>
+      <c r="G2612" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2613" t="inlineStr">
+        <is>
+          <t>American Eagles</t>
+        </is>
+      </c>
+      <c r="C2613" t="inlineStr">
+        <is>
+          <t>Navy Midshipmen</t>
+        </is>
+      </c>
+      <c r="D2613" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2613" t="n">
+        <v>65</v>
+      </c>
+      <c r="F2613" t="n">
+        <v>51</v>
+      </c>
+      <c r="G2613" t="n">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2614" t="inlineStr">
+        <is>
+          <t>Stephen F. Austin Lumberjacks</t>
+        </is>
+      </c>
+      <c r="C2614" t="inlineStr">
+        <is>
+          <t>Incarnate Word Cardinals</t>
+        </is>
+      </c>
+      <c r="D2614" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="E2614" t="n">
+        <v>56</v>
+      </c>
+      <c r="F2614" t="n">
+        <v>46</v>
+      </c>
+      <c r="G2614" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2615" t="inlineStr">
+        <is>
+          <t>Coppin St Eagles</t>
+        </is>
+      </c>
+      <c r="C2615" t="inlineStr">
+        <is>
+          <t>South Carolina St Bulldogs</t>
+        </is>
+      </c>
+      <c r="D2615" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E2615" t="n">
+        <v>72</v>
+      </c>
+      <c r="F2615" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2615" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>Howard Bison</t>
+        </is>
+      </c>
+      <c r="C2616" t="inlineStr">
+        <is>
+          <t>Delaware St Hornets</t>
+        </is>
+      </c>
+      <c r="D2616" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2616" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2616" t="n">
+        <v>58</v>
+      </c>
+      <c r="G2616" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>Lamar Cardinals</t>
+        </is>
+      </c>
+      <c r="C2617" t="inlineStr">
+        <is>
+          <t>Houston Christian Huskies</t>
+        </is>
+      </c>
+      <c r="D2617" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="E2617" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2617" t="n">
+        <v>56</v>
+      </c>
+      <c r="G2617" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>Prairie View Panthers</t>
+        </is>
+      </c>
+      <c r="C2618" t="inlineStr">
+        <is>
+          <t>Arkansas-Pine Bluff Golden Lions</t>
+        </is>
+      </c>
+      <c r="D2618" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="E2618" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2618" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2618" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>Norfolk St Spartans</t>
+        </is>
+      </c>
+      <c r="C2619" t="inlineStr">
+        <is>
+          <t>Maryland-Eastern Shore Hawks</t>
+        </is>
+      </c>
+      <c r="D2619" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="E2619" t="n">
+        <v>70</v>
+      </c>
+      <c r="F2619" t="n">
+        <v>74</v>
+      </c>
+      <c r="G2619" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>SE Louisiana Lions</t>
+        </is>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t>New Orleans Privateers</t>
+        </is>
+      </c>
+      <c r="D2620" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E2620" t="n">
+        <v>76</v>
+      </c>
+      <c r="F2620" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2620" t="n">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>Texas Southern Tigers</t>
+        </is>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t>Miss Valley St Delta Devils</t>
+        </is>
+      </c>
+      <c r="D2621" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="E2621" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2621" t="n">
+        <v>51</v>
+      </c>
+      <c r="G2621" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
